--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\FtPICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/io-model/ftpicm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E8A33-0F1C-4B2E-9B68-FBB2DA49707F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E694A3-E901-A141-A0A0-A88DA2A84669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="3195" windowWidth="28755" windowHeight="18330" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,6 +321,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,18 +636,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A1A1A-2754-497E-93D3-216BB1DC7139}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,32 +658,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -704,13 +708,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="43" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="43" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -972,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>

--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/io-model/ftpicm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/ftpicm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E694A3-E901-A141-A0A0-A88DA2A84669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E250728-8C7E-D742-AE2F-8E1C889DAF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/ftpicm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\FtPICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E250728-8C7E-D742-AE2F-8E1C889DAF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E8A33-0F1C-4B2E-9B68-FBB2DA49707F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
+    <workbookView xWindow="17775" yWindow="3195" windowWidth="28755" windowHeight="18330" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,7 +321,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,21 +635,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A1A1A-2754-497E-93D3-216BB1DC7139}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="5">
-        <v>44307</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,32 +654,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -708,13 +704,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="43" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="43" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -845,7 +841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -976,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1107,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1762,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1893,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2155,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2286,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2417,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2941,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3203,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -3334,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3465,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>

--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\FtPICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/ftpicm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E8A33-0F1C-4B2E-9B68-FBB2DA49707F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E250728-8C7E-D742-AE2F-8E1C889DAF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="3195" windowWidth="28755" windowHeight="18330" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,6 +321,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,18 +636,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A1A1A-2754-497E-93D3-216BB1DC7139}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,32 +658,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -704,13 +708,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="43" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="43" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -972,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
